--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/23_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/23_225-80R17.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
-  </si>
-  <si>
-    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -547,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -659,454 +656,439 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.408511989018791</v>
+      </c>
+      <c r="E2">
+        <v>0.09587178602743002</v>
+      </c>
+      <c r="F2">
+        <v>0.2062492433160749</v>
+      </c>
+      <c r="G2">
+        <v>0.02490326550915646</v>
+      </c>
+      <c r="H2">
+        <v>0.05088579437627326</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.057840105173625</v>
+      </c>
+      <c r="K2">
+        <v>0.03985254030983184</v>
+      </c>
+      <c r="L2">
+        <v>0.04281750163370778</v>
+      </c>
+      <c r="M2">
+        <v>0.003138608383817945</v>
+      </c>
+      <c r="N2">
+        <v>0.04134772231940748</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.02179851841227426</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0.006782925519610101</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.3302499310136194</v>
-      </c>
-      <c r="E2">
-        <v>0.1669039253837691</v>
-      </c>
-      <c r="F2">
-        <v>0.1557810055898387</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.08442668820431816</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.1883348156117799</v>
-      </c>
-      <c r="K2">
-        <v>0.01045107765183455</v>
-      </c>
-      <c r="L2">
-        <v>0.007678390196927198</v>
-      </c>
-      <c r="M2">
-        <v>0.01622912513676921</v>
-      </c>
-      <c r="N2">
-        <v>0.01837533895006768</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0.0194848632221797</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0.002084839038896349</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.0797389052359891</v>
+      </c>
+      <c r="E3">
+        <v>0.08239189297285326</v>
+      </c>
+      <c r="F3">
+        <v>0.2789296018937301</v>
+      </c>
+      <c r="G3">
+        <v>0.09461675834130567</v>
+      </c>
+      <c r="H3">
+        <v>0.1485639597466789</v>
+      </c>
+      <c r="I3">
+        <v>0.04799242735959078</v>
+      </c>
+      <c r="J3">
+        <v>0.004200363165332494</v>
+      </c>
+      <c r="K3">
+        <v>0.02377316296478489</v>
+      </c>
+      <c r="L3">
+        <v>0.09309075521005947</v>
+      </c>
+      <c r="M3">
+        <v>0.04738530269251557</v>
+      </c>
+      <c r="N3">
+        <v>0.001272591674579706</v>
+      </c>
+      <c r="O3">
+        <v>0.06067992676951985</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.03625687373055702</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.001107478242503516</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.3716032150744039</v>
-      </c>
-      <c r="E3">
-        <v>0.1120828411820291</v>
-      </c>
-      <c r="F3">
-        <v>0.2284767577242373</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.09814763423703488</v>
-      </c>
-      <c r="I3">
-        <v>0.01186764823945862</v>
-      </c>
-      <c r="J3">
-        <v>0.04550257655858475</v>
-      </c>
-      <c r="K3">
-        <v>0.08018781914404788</v>
-      </c>
-      <c r="L3">
-        <v>0.0256757149465948</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0.006978414549993373</v>
-      </c>
-      <c r="O3">
-        <v>0.004661910947744816</v>
-      </c>
-      <c r="P3">
-        <v>0.01017194478993194</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0.002925365375275477</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0.001718157230663112</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.01575067179713669</v>
+      </c>
+      <c r="E4">
+        <v>0.3033482894600635</v>
+      </c>
+      <c r="F4">
+        <v>0.234195290194561</v>
+      </c>
+      <c r="G4">
+        <v>0.07066975843399691</v>
+      </c>
+      <c r="H4">
+        <v>0.05436503253710961</v>
+      </c>
+      <c r="I4">
+        <v>0.03257737397486548</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.07480821331919324</v>
+      </c>
+      <c r="L4">
+        <v>0.05827862506562455</v>
+      </c>
+      <c r="M4">
+        <v>0.04138136007998016</v>
+      </c>
+      <c r="N4">
+        <v>0.001544300424454748</v>
+      </c>
+      <c r="O4">
+        <v>0.03296186753550467</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.05584241730322764</v>
+      </c>
+      <c r="W4">
+        <v>0.00720393524043856</v>
+      </c>
+      <c r="X4">
+        <v>0.00844446359695542</v>
+      </c>
+      <c r="Y4">
+        <v>0.008628401036887647</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.4049335784125176</v>
-      </c>
-      <c r="E4">
-        <v>0.1079340005213218</v>
-      </c>
-      <c r="F4">
-        <v>0.2163027720570184</v>
-      </c>
-      <c r="G4">
-        <v>0.03118590938781405</v>
-      </c>
-      <c r="H4">
-        <v>0.06110479488036279</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.06543893651627987</v>
-      </c>
-      <c r="K4">
-        <v>0.05799595403787781</v>
-      </c>
-      <c r="L4">
-        <v>0.01550286680366057</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0.002530597755671145</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0.002476277645915934</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.03459431198155977</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.2893550810330027</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.3363102262315339</v>
+      </c>
+      <c r="G5">
+        <v>0.06812722095265079</v>
+      </c>
+      <c r="H5">
+        <v>0.1214444919826614</v>
+      </c>
+      <c r="I5">
+        <v>0.0107172190769363</v>
+      </c>
+      <c r="J5">
+        <v>0.02553535147983046</v>
+      </c>
+      <c r="K5">
+        <v>0.0403957916796604</v>
+      </c>
+      <c r="L5">
+        <v>0.02709819072673736</v>
+      </c>
+      <c r="M5">
+        <v>0.009981527989779601</v>
+      </c>
+      <c r="N5">
+        <v>0.01171282027024512</v>
+      </c>
+      <c r="O5">
+        <v>0.002285541801744437</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0.01781093209961845</v>
+      </c>
+      <c r="V5">
+        <v>0.008830517345261748</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0.004033155494500197</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0.01726534193196419</v>
+      </c>
+      <c r="AD5">
+        <v>0.009096589903872868</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.06014753881389298</v>
-      </c>
-      <c r="E5">
-        <v>0.1915309565432505</v>
-      </c>
-      <c r="F5">
-        <v>0.26625077613972</v>
-      </c>
-      <c r="G5">
-        <v>0.1053771039220696</v>
-      </c>
-      <c r="H5">
-        <v>0.03532971587881437</v>
-      </c>
-      <c r="I5">
-        <v>0.0224069648525802</v>
-      </c>
-      <c r="J5">
-        <v>0.005173921023381215</v>
-      </c>
-      <c r="K5">
-        <v>0.1127109794310434</v>
-      </c>
-      <c r="L5">
-        <v>0.05891543941350453</v>
-      </c>
-      <c r="M5">
-        <v>0.02193094678144049</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.04993603835221524</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0.05272002345521698</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0.01233469435441936</v>
-      </c>
-      <c r="Y5">
-        <v>0.004434868664624168</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0.0008000323738270586</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1114,40 +1096,40 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.06547913900254333</v>
       </c>
       <c r="E6">
-        <v>0.2907730386157671</v>
+        <v>0.1583698081010087</v>
       </c>
       <c r="F6">
-        <v>0.2039501137812078</v>
+        <v>0.3569537470739733</v>
       </c>
       <c r="G6">
-        <v>0.1586686203233068</v>
+        <v>0.07067313954615345</v>
       </c>
       <c r="H6">
-        <v>0.02531671387237915</v>
+        <v>0.06461900336576192</v>
       </c>
       <c r="I6">
-        <v>0.04944221589138056</v>
+        <v>0.06474027923165632</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.06940606279183588</v>
+        <v>0.08758850274408513</v>
       </c>
       <c r="L6">
-        <v>0.09585265178217162</v>
+        <v>0.02800641315810495</v>
       </c>
       <c r="M6">
-        <v>0.03780375597064969</v>
+        <v>0.01739776391782711</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.01165736610010075</v>
       </c>
       <c r="O6">
-        <v>0.03325913465644115</v>
+        <v>0.009315105268786469</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1168,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.02849876634905324</v>
+        <v>0.03653168772531067</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.004498100090316668</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1189,16 +1171,16 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.01011454387531687</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.01081637047449071</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.007028925965806903</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1207,10 +1189,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
+        <v>0.003239030324563781</v>
       </c>
     </row>
   </sheetData>
@@ -1220,15 +1199,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1332,234 +1311,225 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.408511989018791</v>
+      </c>
+      <c r="E2">
+        <v>0.504383775046221</v>
+      </c>
+      <c r="F2">
+        <v>0.7106330183622959</v>
+      </c>
+      <c r="G2">
+        <v>0.7355362838714523</v>
+      </c>
+      <c r="H2">
+        <v>0.7864220782477256</v>
+      </c>
+      <c r="I2">
+        <v>0.7864220782477256</v>
+      </c>
+      <c r="J2">
+        <v>0.8442621834213506</v>
+      </c>
+      <c r="K2">
+        <v>0.8841147237311825</v>
+      </c>
+      <c r="L2">
+        <v>0.9269322253648903</v>
+      </c>
+      <c r="M2">
+        <v>0.9300708337487082</v>
+      </c>
+      <c r="N2">
+        <v>0.9714185560681157</v>
+      </c>
+      <c r="O2">
+        <v>0.9714185560681157</v>
+      </c>
+      <c r="P2">
+        <v>0.9714185560681157</v>
+      </c>
+      <c r="Q2">
+        <v>0.9714185560681157</v>
+      </c>
+      <c r="R2">
+        <v>0.9714185560681157</v>
+      </c>
+      <c r="S2">
+        <v>0.9714185560681157</v>
+      </c>
+      <c r="T2">
+        <v>0.9714185560681157</v>
+      </c>
+      <c r="U2">
+        <v>0.99321707448039</v>
+      </c>
+      <c r="V2">
+        <v>0.99321707448039</v>
+      </c>
+      <c r="W2">
+        <v>0.99321707448039</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.3302499310136194</v>
-      </c>
-      <c r="E2">
-        <v>0.4971538563973885</v>
-      </c>
-      <c r="F2">
-        <v>0.6529348619872273</v>
-      </c>
-      <c r="G2">
-        <v>0.6529348619872273</v>
-      </c>
-      <c r="H2">
-        <v>0.7373615501915455</v>
-      </c>
-      <c r="I2">
-        <v>0.7373615501915455</v>
-      </c>
-      <c r="J2">
-        <v>0.9256963658033254</v>
-      </c>
-      <c r="K2">
-        <v>0.9361474434551599</v>
-      </c>
-      <c r="L2">
-        <v>0.9438258336520871</v>
-      </c>
-      <c r="M2">
-        <v>0.9600549587888563</v>
-      </c>
-      <c r="N2">
-        <v>0.978430297738924</v>
-      </c>
-      <c r="O2">
-        <v>0.978430297738924</v>
-      </c>
-      <c r="P2">
-        <v>0.978430297738924</v>
-      </c>
-      <c r="Q2">
-        <v>0.978430297738924</v>
-      </c>
-      <c r="R2">
-        <v>0.978430297738924</v>
-      </c>
-      <c r="S2">
-        <v>0.978430297738924</v>
-      </c>
-      <c r="T2">
-        <v>0.978430297738924</v>
-      </c>
-      <c r="U2">
-        <v>0.9979151609611037</v>
-      </c>
-      <c r="V2">
-        <v>0.9979151609611037</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.0797389052359891</v>
+      </c>
+      <c r="E3">
+        <v>0.1621307982088424</v>
+      </c>
+      <c r="F3">
+        <v>0.4410604001025724</v>
+      </c>
+      <c r="G3">
+        <v>0.5356771584438781</v>
+      </c>
+      <c r="H3">
+        <v>0.684241118190557</v>
+      </c>
+      <c r="I3">
+        <v>0.7322335455501477</v>
+      </c>
+      <c r="J3">
+        <v>0.7364339087154802</v>
+      </c>
+      <c r="K3">
+        <v>0.7602070716802651</v>
+      </c>
+      <c r="L3">
+        <v>0.8532978268903246</v>
+      </c>
+      <c r="M3">
+        <v>0.9006831295828402</v>
+      </c>
+      <c r="N3">
+        <v>0.90195572125742</v>
+      </c>
+      <c r="O3">
+        <v>0.9626356480269398</v>
+      </c>
+      <c r="P3">
+        <v>0.9626356480269398</v>
+      </c>
+      <c r="Q3">
+        <v>0.9626356480269398</v>
+      </c>
+      <c r="R3">
+        <v>0.9626356480269398</v>
+      </c>
+      <c r="S3">
+        <v>0.9626356480269398</v>
+      </c>
+      <c r="T3">
+        <v>0.9626356480269398</v>
+      </c>
+      <c r="U3">
+        <v>0.9626356480269398</v>
+      </c>
+      <c r="V3">
+        <v>0.9988925217574968</v>
+      </c>
+      <c r="W3">
+        <v>0.9988925217574968</v>
+      </c>
+      <c r="X3">
+        <v>0.9988925217574968</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.3716032150744039</v>
-      </c>
-      <c r="E3">
-        <v>0.483686056256433</v>
-      </c>
-      <c r="F3">
-        <v>0.7121628139806703</v>
-      </c>
-      <c r="G3">
-        <v>0.7121628139806703</v>
-      </c>
-      <c r="H3">
-        <v>0.8103104482177051</v>
-      </c>
-      <c r="I3">
-        <v>0.8221780964571638</v>
-      </c>
-      <c r="J3">
-        <v>0.8676806730157485</v>
-      </c>
-      <c r="K3">
-        <v>0.9478684921597964</v>
-      </c>
-      <c r="L3">
-        <v>0.9735442071063912</v>
-      </c>
-      <c r="M3">
-        <v>0.9735442071063912</v>
-      </c>
-      <c r="N3">
-        <v>0.9805226216563846</v>
-      </c>
-      <c r="O3">
-        <v>0.9851845326041294</v>
-      </c>
-      <c r="P3">
-        <v>0.9953564773940613</v>
-      </c>
-      <c r="Q3">
-        <v>0.9953564773940613</v>
-      </c>
-      <c r="R3">
-        <v>0.9953564773940613</v>
-      </c>
-      <c r="S3">
-        <v>0.9953564773940613</v>
-      </c>
-      <c r="T3">
-        <v>0.9953564773940613</v>
-      </c>
-      <c r="U3">
-        <v>0.9982818427693367</v>
-      </c>
-      <c r="V3">
-        <v>0.9982818427693367</v>
-      </c>
-      <c r="W3">
-        <v>0.9982818427693367</v>
-      </c>
-      <c r="X3">
-        <v>0.9982818427693367</v>
-      </c>
-      <c r="Y3">
-        <v>0.9982818427693367</v>
-      </c>
-      <c r="Z3">
-        <v>0.9982818427693367</v>
-      </c>
-      <c r="AA3">
-        <v>0.9982818427693367</v>
-      </c>
-      <c r="AB3">
-        <v>0.9982818427693367</v>
-      </c>
-      <c r="AC3">
-        <v>0.9982818427693367</v>
-      </c>
-      <c r="AD3">
-        <v>0.9982818427693367</v>
-      </c>
-      <c r="AE3">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AF3">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AG3">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH3">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI3">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ3">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
@@ -1567,67 +1537,67 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.4049335784125176</v>
+        <v>0.01575067179713669</v>
       </c>
       <c r="E4">
-        <v>0.5128675789338395</v>
+        <v>0.3190989612572002</v>
       </c>
       <c r="F4">
-        <v>0.7291703509908579</v>
+        <v>0.5532942514517611</v>
       </c>
       <c r="G4">
-        <v>0.760356260378672</v>
+        <v>0.6239640098857581</v>
       </c>
       <c r="H4">
-        <v>0.8214610552590348</v>
+        <v>0.6783290424228676</v>
       </c>
       <c r="I4">
-        <v>0.8214610552590348</v>
+        <v>0.7109064163977331</v>
       </c>
       <c r="J4">
-        <v>0.8868999917753146</v>
+        <v>0.7109064163977331</v>
       </c>
       <c r="K4">
-        <v>0.9448959458131925</v>
+        <v>0.7857146297169264</v>
       </c>
       <c r="L4">
-        <v>0.960398812616853</v>
+        <v>0.8439932547825509</v>
       </c>
       <c r="M4">
-        <v>0.960398812616853</v>
+        <v>0.8853746148625311</v>
       </c>
       <c r="N4">
-        <v>0.9629294103725241</v>
+        <v>0.8869189152869859</v>
       </c>
       <c r="O4">
-        <v>0.9629294103725241</v>
+        <v>0.9198807828224905</v>
       </c>
       <c r="P4">
-        <v>0.9654056880184401</v>
+        <v>0.9198807828224905</v>
       </c>
       <c r="Q4">
-        <v>0.9654056880184401</v>
+        <v>0.9198807828224905</v>
       </c>
       <c r="R4">
-        <v>0.9654056880184401</v>
+        <v>0.9198807828224905</v>
       </c>
       <c r="S4">
-        <v>0.9654056880184401</v>
+        <v>0.9198807828224905</v>
       </c>
       <c r="T4">
-        <v>0.9654056880184401</v>
+        <v>0.9198807828224905</v>
       </c>
       <c r="U4">
-        <v>0.9999999999999998</v>
+        <v>0.9198807828224905</v>
       </c>
       <c r="V4">
-        <v>0.9999999999999998</v>
+        <v>0.9757232001257181</v>
       </c>
       <c r="W4">
-        <v>0.9999999999999998</v>
+        <v>0.9829271353661567</v>
       </c>
       <c r="X4">
-        <v>0.9999999999999998</v>
+        <v>0.9913715989631121</v>
       </c>
       <c r="Y4">
         <v>0.9999999999999998</v>
@@ -1662,124 +1632,118 @@
       <c r="AI4">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AJ4">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.2893550810330027</v>
+      </c>
+      <c r="E5">
+        <v>0.2893550810330027</v>
+      </c>
+      <c r="F5">
+        <v>0.6256653072645366</v>
+      </c>
+      <c r="G5">
+        <v>0.6937925282171874</v>
+      </c>
+      <c r="H5">
+        <v>0.8152370201998488</v>
+      </c>
+      <c r="I5">
+        <v>0.8259542392767851</v>
+      </c>
+      <c r="J5">
+        <v>0.8514895907566156</v>
+      </c>
+      <c r="K5">
+        <v>0.891885382436276</v>
+      </c>
+      <c r="L5">
+        <v>0.9189835731630134</v>
+      </c>
+      <c r="M5">
+        <v>0.928965101152793</v>
+      </c>
+      <c r="N5">
+        <v>0.9406779214230381</v>
+      </c>
+      <c r="O5">
+        <v>0.9429634632247825</v>
+      </c>
+      <c r="P5">
+        <v>0.9429634632247825</v>
+      </c>
+      <c r="Q5">
+        <v>0.9429634632247825</v>
+      </c>
+      <c r="R5">
+        <v>0.9429634632247825</v>
+      </c>
+      <c r="S5">
+        <v>0.9429634632247825</v>
+      </c>
+      <c r="T5">
+        <v>0.9429634632247825</v>
+      </c>
+      <c r="U5">
+        <v>0.960774395324401</v>
+      </c>
+      <c r="V5">
+        <v>0.9696049126696628</v>
+      </c>
+      <c r="W5">
+        <v>0.9696049126696628</v>
+      </c>
+      <c r="X5">
+        <v>0.973638068164163</v>
+      </c>
+      <c r="Y5">
+        <v>0.973638068164163</v>
+      </c>
+      <c r="Z5">
+        <v>0.973638068164163</v>
+      </c>
+      <c r="AA5">
+        <v>0.973638068164163</v>
+      </c>
+      <c r="AB5">
+        <v>0.973638068164163</v>
+      </c>
+      <c r="AC5">
+        <v>0.9909034100961271</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.06014753881389298</v>
-      </c>
-      <c r="E5">
-        <v>0.2516784953571435</v>
-      </c>
-      <c r="F5">
-        <v>0.5179292714968635</v>
-      </c>
-      <c r="G5">
-        <v>0.6233063754189332</v>
-      </c>
-      <c r="H5">
-        <v>0.6586360912977476</v>
-      </c>
-      <c r="I5">
-        <v>0.6810430561503278</v>
-      </c>
-      <c r="J5">
-        <v>0.686216977173709</v>
-      </c>
-      <c r="K5">
-        <v>0.7989279566047524</v>
-      </c>
-      <c r="L5">
-        <v>0.8578433960182569</v>
-      </c>
-      <c r="M5">
-        <v>0.8797743427996974</v>
-      </c>
-      <c r="N5">
-        <v>0.8797743427996974</v>
-      </c>
-      <c r="O5">
-        <v>0.9297103811519126</v>
-      </c>
-      <c r="P5">
-        <v>0.9297103811519126</v>
-      </c>
-      <c r="Q5">
-        <v>0.9297103811519126</v>
-      </c>
-      <c r="R5">
-        <v>0.9297103811519126</v>
-      </c>
-      <c r="S5">
-        <v>0.9297103811519126</v>
-      </c>
-      <c r="T5">
-        <v>0.9297103811519126</v>
-      </c>
-      <c r="U5">
-        <v>0.9297103811519126</v>
-      </c>
-      <c r="V5">
-        <v>0.9824304046071296</v>
-      </c>
-      <c r="W5">
-        <v>0.9824304046071296</v>
-      </c>
-      <c r="X5">
-        <v>0.994765098961549</v>
-      </c>
-      <c r="Y5">
-        <v>0.9991999676261731</v>
-      </c>
-      <c r="Z5">
-        <v>0.9991999676261731</v>
-      </c>
-      <c r="AA5">
-        <v>0.9991999676261731</v>
-      </c>
-      <c r="AB5">
-        <v>0.9991999676261731</v>
-      </c>
-      <c r="AC5">
-        <v>0.9991999676261731</v>
-      </c>
-      <c r="AD5">
-        <v>0.9991999676261731</v>
-      </c>
-      <c r="AE5">
-        <v>0.9991999676261731</v>
-      </c>
-      <c r="AF5">
-        <v>0.9991999676261731</v>
-      </c>
-      <c r="AG5">
-        <v>0.9991999676261731</v>
-      </c>
-      <c r="AH5">
-        <v>0.9991999676261731</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1787,102 +1751,99 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.06547913900254333</v>
       </c>
       <c r="E6">
-        <v>0.2907730386157671</v>
+        <v>0.2238489471035521</v>
       </c>
       <c r="F6">
-        <v>0.494723152396975</v>
+        <v>0.5808026941775253</v>
       </c>
       <c r="G6">
-        <v>0.6533917727202817</v>
+        <v>0.6514758337236788</v>
       </c>
       <c r="H6">
-        <v>0.6787084865926608</v>
+        <v>0.7160948370894407</v>
       </c>
       <c r="I6">
-        <v>0.7281507024840413</v>
+        <v>0.7808351163210969</v>
       </c>
       <c r="J6">
-        <v>0.7281507024840413</v>
+        <v>0.7808351163210969</v>
       </c>
       <c r="K6">
-        <v>0.7975567652758773</v>
+        <v>0.8684236190651821</v>
       </c>
       <c r="L6">
-        <v>0.8934094170580489</v>
+        <v>0.896430032223287</v>
       </c>
       <c r="M6">
-        <v>0.9312131730286985</v>
+        <v>0.9138277961411141</v>
       </c>
       <c r="N6">
-        <v>0.9312131730286985</v>
+        <v>0.9254851622412148</v>
       </c>
       <c r="O6">
-        <v>0.9644723076851397</v>
+        <v>0.9348002675100012</v>
       </c>
       <c r="P6">
-        <v>0.9644723076851397</v>
+        <v>0.9348002675100012</v>
       </c>
       <c r="Q6">
-        <v>0.9644723076851397</v>
+        <v>0.9348002675100012</v>
       </c>
       <c r="R6">
-        <v>0.9644723076851397</v>
+        <v>0.9348002675100012</v>
       </c>
       <c r="S6">
-        <v>0.9644723076851397</v>
+        <v>0.9348002675100012</v>
       </c>
       <c r="T6">
-        <v>0.9644723076851397</v>
+        <v>0.9348002675100012</v>
       </c>
       <c r="U6">
-        <v>0.9644723076851397</v>
+        <v>0.9348002675100012</v>
       </c>
       <c r="V6">
-        <v>0.9929710740341929</v>
+        <v>0.9713319552353119</v>
       </c>
       <c r="W6">
-        <v>0.9929710740341929</v>
+        <v>0.9713319552353119</v>
       </c>
       <c r="X6">
-        <v>0.9929710740341929</v>
+        <v>0.9758300553256286</v>
       </c>
       <c r="Y6">
-        <v>0.9929710740341929</v>
+        <v>0.9758300553256286</v>
       </c>
       <c r="Z6">
-        <v>0.9929710740341929</v>
+        <v>0.9758300553256286</v>
       </c>
       <c r="AA6">
-        <v>0.9929710740341929</v>
+        <v>0.9758300553256286</v>
       </c>
       <c r="AB6">
-        <v>0.9929710740341929</v>
+        <v>0.9758300553256286</v>
       </c>
       <c r="AC6">
-        <v>0.9929710740341929</v>
+        <v>0.9859445992009455</v>
       </c>
       <c r="AD6">
-        <v>0.9929710740341929</v>
+        <v>0.9967609696754361</v>
       </c>
       <c r="AE6">
-        <v>0.9929710740341929</v>
+        <v>0.9967609696754361</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>0.9967609696754361</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>0.9967609696754361</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>0.9967609696754361</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ6">
         <v>0.9999999999999999</v>
       </c>
     </row>
@@ -1901,48 +1862,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1951,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6529348619872273</v>
+        <v>0.504383775046221</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -1969,21 +1930,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -1992,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.5356771584438781</v>
+      </c>
+      <c r="G3">
         <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7121628139806703</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -2010,36 +1971,36 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5128675789338395</v>
+        <v>0.5532942514517611</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -2051,21 +2012,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -2080,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5179292714968635</v>
+        <v>0.6256653072645366</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2092,36 +2053,36 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6533917727202817</v>
+        <v>0.5808026941775253</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2133,16 +2094,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2160,48 +2121,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -2210,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7373615501915455</v>
+        <v>0.7106330183622959</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -2228,21 +2189,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2251,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7121628139806703</v>
+        <v>0.7322335455501477</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -2269,39 +2230,39 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7291703509908579</v>
+        <v>0.7109064163977331</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -2310,21 +2271,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -2333,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7989279566047524</v>
+        <v>0.8152370201998488</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -2351,36 +2312,36 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7281507024840413</v>
+        <v>0.7160948370894407</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -2392,16 +2353,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2419,48 +2380,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -2475,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9256963658033254</v>
+        <v>0.8442621834213506</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -2487,21 +2448,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2510,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8103104482177051</v>
+        <v>0.8532978268903246</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -2528,39 +2489,39 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8214610552590348</v>
+        <v>0.8439932547825509</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -2569,21 +2530,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -2592,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8578433960182569</v>
+        <v>0.8152370201998488</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -2610,36 +2571,36 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8934094170580489</v>
+        <v>0.8684236190651821</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -2651,16 +2612,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2678,48 +2639,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -2728,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9256963658033254</v>
+        <v>0.9269322253648903</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -2746,21 +2707,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -2769,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9478684921597964</v>
+        <v>0.9006831295828402</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -2787,39 +2748,39 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9448959458131925</v>
+        <v>0.9198807828224905</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -2828,21 +2789,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -2851,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9297103811519126</v>
+        <v>0.9189835731630134</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -2869,27 +2830,27 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -2898,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9312131730286985</v>
+        <v>0.9138277961411141</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -2910,16 +2871,16 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
